--- a/Documentation/Product_Backlog.xlsx
+++ b/Documentation/Product_Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,24 +462,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,15 +499,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,26 +855,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -900,14 +900,14 @@
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -926,21 +926,21 @@
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1034,17 +1034,17 @@
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="26"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="29"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1075,12 +1075,12 @@
       <c r="L9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="19"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="11" t="s">
         <v>3</v>
       </c>
@@ -1113,10 +1113,10 @@
       <c r="L10" s="14">
         <v>40819</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="21"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="20"/>
       <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
       <c r="L11" s="14">
         <v>40826</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
       <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1181,10 +1181,10 @@
       <c r="L12" s="14">
         <v>40833</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="20"/>
       <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1197,10 +1197,10 @@
       <c r="L13" s="14">
         <v>40840</v>
       </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="21"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1213,10 +1213,10 @@
       <c r="L14" s="14">
         <v>40847</v>
       </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="21"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
       <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1229,10 +1229,10 @@
       <c r="L15" s="14">
         <v>40854</v>
       </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1245,10 +1245,10 @@
       <c r="L16" s="14">
         <v>40861</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="9:17" x14ac:dyDescent="0.25">
@@ -1261,10 +1261,10 @@
       <c r="L17" s="14">
         <v>40868</v>
       </c>
-      <c r="M17" s="29"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="21"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="20"/>
       <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="9:17" x14ac:dyDescent="0.25">
@@ -1277,10 +1277,10 @@
       <c r="L18" s="14">
         <v>40875</v>
       </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="21"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="20"/>
       <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="9:17" x14ac:dyDescent="0.25">
@@ -1293,10 +1293,10 @@
       <c r="L19" s="14">
         <v>40882</v>
       </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="21"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="9:17" x14ac:dyDescent="0.25">
@@ -1309,10 +1309,10 @@
       <c r="L20" s="14">
         <v>40889</v>
       </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20"/>
       <c r="Q20" s="16" t="s">
         <v>49</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="L21" s="15">
         <v>40896</v>
       </c>
-      <c r="M21" s="30"/>
+      <c r="M21" s="21"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="23"/>
@@ -1337,6 +1337,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="M21:P21"/>
     <mergeCell ref="M14:P14"/>
@@ -1345,17 +1356,6 @@
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M18:P18"/>
     <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F12">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NOT STARTED">

--- a/Documentation/Product_Backlog.xlsx
+++ b/Documentation/Product_Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -187,6 +187,138 @@
   </si>
   <si>
     <t>Paul</t>
+  </si>
+  <si>
+    <t>Music Design</t>
+  </si>
+  <si>
+    <t>Splash Screen Music</t>
+  </si>
+  <si>
+    <t>Title Music</t>
+  </si>
+  <si>
+    <t>Research FMOD</t>
+  </si>
+  <si>
+    <t>Gather SFX examples</t>
+  </si>
+  <si>
+    <t>Intergate Sound Manager</t>
+  </si>
+  <si>
+    <t>Music 1</t>
+  </si>
+  <si>
+    <t>Music 2</t>
+  </si>
+  <si>
+    <t>Music 3</t>
+  </si>
+  <si>
+    <t>Music 4</t>
+  </si>
+  <si>
+    <t>Music 5</t>
+  </si>
+  <si>
+    <t>Music 6</t>
+  </si>
+  <si>
+    <t>Art 1</t>
+  </si>
+  <si>
+    <t>Art Plan</t>
+  </si>
+  <si>
+    <t>Produce Placeholders</t>
+  </si>
+  <si>
+    <t>Player Art</t>
+  </si>
+  <si>
+    <t>Enemy Art</t>
+  </si>
+  <si>
+    <t>Level Design</t>
+  </si>
+  <si>
+    <t>Textures and Materials</t>
+  </si>
+  <si>
+    <t>3D Modelling</t>
+  </si>
+  <si>
+    <t>Art 2</t>
+  </si>
+  <si>
+    <t>Art 3</t>
+  </si>
+  <si>
+    <t>Art 4</t>
+  </si>
+  <si>
+    <t>Art 5</t>
+  </si>
+  <si>
+    <t>Art 6</t>
+  </si>
+  <si>
+    <t>Art 7</t>
+  </si>
+  <si>
+    <t>Gantt Charts</t>
+  </si>
+  <si>
+    <t>Git Standards</t>
+  </si>
+  <si>
+    <t>Test Plan</t>
+  </si>
+  <si>
+    <t>Documentation 1</t>
+  </si>
+  <si>
+    <t>Documentation 2</t>
+  </si>
+  <si>
+    <t>Documentation 3</t>
+  </si>
+  <si>
+    <t>Programming 1</t>
+  </si>
+  <si>
+    <t>Programming 2</t>
+  </si>
+  <si>
+    <t>Programming 3</t>
+  </si>
+  <si>
+    <t>Programming 4</t>
+  </si>
+  <si>
+    <t>Programming 5</t>
+  </si>
+  <si>
+    <t>Programming 6</t>
+  </si>
+  <si>
+    <t>Strip out Demo Application</t>
+  </si>
+  <si>
+    <t>Character Movement</t>
+  </si>
+  <si>
+    <t>Building Skybox, landscape and camera</t>
+  </si>
+  <si>
+    <t>Physics Engine</t>
+  </si>
+  <si>
+    <t>Sound Manager</t>
+  </si>
+  <si>
+    <t>Level Manager</t>
   </si>
 </sst>
 </file>
@@ -462,50 +594,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2FF146"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2FF146"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -829,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,26 +1029,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="29"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -900,14 +1074,14 @@
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="26"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -933,14 +1107,14 @@
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1034,17 +1208,17 @@
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="29"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1075,12 +1249,12 @@
       <c r="L9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="26"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="11" t="s">
         <v>3</v>
       </c>
@@ -1113,10 +1287,10 @@
       <c r="L10" s="14">
         <v>40819</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="21"/>
       <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1147,10 +1321,10 @@
       <c r="L11" s="14">
         <v>40826</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="21"/>
       <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1181,13 +1355,31 @@
       <c r="L12" s="14">
         <v>40833</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="21"/>
       <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I13" s="12" t="s">
         <v>40</v>
       </c>
@@ -1197,13 +1389,31 @@
       <c r="L13" s="14">
         <v>40840</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="21"/>
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I14" s="12" t="s">
         <v>41</v>
       </c>
@@ -1213,13 +1423,31 @@
       <c r="L14" s="14">
         <v>40847</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="21"/>
       <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I15" s="12" t="s">
         <v>42</v>
       </c>
@@ -1229,13 +1457,31 @@
       <c r="L15" s="14">
         <v>40854</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="20"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="21"/>
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I16" s="12" t="s">
         <v>43</v>
       </c>
@@ -1245,13 +1491,31 @@
       <c r="L16" s="14">
         <v>40861</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="20"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
       <c r="Q16" s="12"/>
     </row>
-    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I17" s="12" t="s">
         <v>44</v>
       </c>
@@ -1261,13 +1525,31 @@
       <c r="L17" s="14">
         <v>40868</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="20"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="21"/>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I18" s="12" t="s">
         <v>45</v>
       </c>
@@ -1277,13 +1559,31 @@
       <c r="L18" s="14">
         <v>40875</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="20"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="21"/>
       <c r="Q18" s="12"/>
     </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I19" s="12" t="s">
         <v>46</v>
       </c>
@@ -1293,13 +1593,31 @@
       <c r="L19" s="14">
         <v>40882</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="20"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="21"/>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I20" s="12" t="s">
         <v>47</v>
       </c>
@@ -1309,15 +1627,33 @@
       <c r="L20" s="14">
         <v>40889</v>
       </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="20"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
       <c r="Q20" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I21" s="13" t="s">
         <v>48</v>
       </c>
@@ -1327,7 +1663,7 @@
       <c r="L21" s="15">
         <v>40896</v>
       </c>
-      <c r="M21" s="21"/>
+      <c r="M21" s="30"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="23"/>
@@ -1335,19 +1671,268 @@
         <v>50</v>
       </c>
     </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>17</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="M21:P21"/>
     <mergeCell ref="M14:P14"/>
@@ -1356,20 +1941,31 @@
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M18:P18"/>
     <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="I2:Q2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F12">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NOT STARTED">
+  <conditionalFormatting sqref="F4:F34">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="NOT STARTED">
       <formula>NOT(ISERROR(SEARCH("NOT STARTED",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="IN PROGRESS">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="IN PROGRESS">
       <formula>NOT(ISERROR(SEARCH("IN PROGRESS",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="DONE">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="DONE">
       <formula>NOT(ISERROR(SEARCH("DONE",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F34">
       <formula1>$I$3:$I$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentation/Product_Backlog.xlsx
+++ b/Documentation/Product_Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>Level Manager</t>
+  </si>
+  <si>
+    <t>Game Treatment 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comic Book Style Storyboard </t>
+  </si>
+  <si>
+    <t>Provice Concept Art Backlog</t>
+  </si>
+  <si>
+    <t>Art 8</t>
   </si>
 </sst>
 </file>
@@ -594,24 +606,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,64 +643,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2FF146"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2FF146"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1003,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,26 +999,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="29"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1074,14 +1045,14 @@
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="19"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="26"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1107,14 +1078,14 @@
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1208,17 +1179,17 @@
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="26"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="29"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1249,12 +1220,12 @@
       <c r="L9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="19"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
       <c r="Q9" s="11" t="s">
         <v>3</v>
       </c>
@@ -1287,10 +1258,10 @@
       <c r="L10" s="14">
         <v>40819</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="21"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="20"/>
       <c r="Q10" s="12"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1321,10 +1292,10 @@
       <c r="L11" s="14">
         <v>40826</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
       <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1355,10 +1326,10 @@
       <c r="L12" s="14">
         <v>40833</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="20"/>
       <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1389,10 +1360,10 @@
       <c r="L13" s="14">
         <v>40840</v>
       </c>
-      <c r="M13" s="29"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="21"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1423,10 +1394,10 @@
       <c r="L14" s="14">
         <v>40847</v>
       </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="21"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
       <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1457,10 +1428,10 @@
       <c r="L15" s="14">
         <v>40854</v>
       </c>
-      <c r="M15" s="29"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="20"/>
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1491,10 +1462,10 @@
       <c r="L16" s="14">
         <v>40861</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1525,10 +1496,10 @@
       <c r="L17" s="14">
         <v>40868</v>
       </c>
-      <c r="M17" s="29"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="21"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="20"/>
       <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1559,10 +1530,10 @@
       <c r="L18" s="14">
         <v>40875</v>
       </c>
-      <c r="M18" s="29"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="21"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="20"/>
       <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1593,10 +1564,10 @@
       <c r="L19" s="14">
         <v>40882</v>
       </c>
-      <c r="M19" s="29"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="21"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="20"/>
       <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1627,10 +1598,10 @@
       <c r="L20" s="14">
         <v>40889</v>
       </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20"/>
       <c r="Q20" s="16" t="s">
         <v>49</v>
       </c>
@@ -1663,7 +1634,7 @@
       <c r="L21" s="15">
         <v>40896</v>
       </c>
-      <c r="M21" s="30"/>
+      <c r="M21" s="21"/>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="23"/>
@@ -1828,7 +1799,7 @@
         <v>56</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -1848,7 +1819,7 @@
         <v>56</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1931,8 +1902,59 @@
         <v>16</v>
       </c>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>31</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="M21:P21"/>
     <mergeCell ref="M14:P14"/>
@@ -1941,31 +1963,20 @@
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M18:P18"/>
     <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="I2:Q2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F34">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="NOT STARTED">
+  <conditionalFormatting sqref="F4:F36">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NOT STARTED">
       <formula>NOT(ISERROR(SEARCH("NOT STARTED",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="IN PROGRESS">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="IN PROGRESS">
       <formula>NOT(ISERROR(SEARCH("IN PROGRESS",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="DONE">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="DONE">
       <formula>NOT(ISERROR(SEARCH("DONE",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F36">
       <formula1>$I$3:$I$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentation/Product_Backlog.xlsx
+++ b/Documentation/Product_Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="109">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -318,19 +318,31 @@
     <t>Sound Manager</t>
   </si>
   <si>
+    <t>Game Treatment 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comic Book Style Storyboard </t>
+  </si>
+  <si>
+    <t>Provice Concept Art Backlog</t>
+  </si>
+  <si>
+    <t>Art 8</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,,7</t>
+  </si>
+  <si>
+    <t>20,21,22,26,27,30,31,24</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>50% done</t>
+  </si>
+  <si>
     <t>Level Manager</t>
-  </si>
-  <si>
-    <t>Game Treatment 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comic Book Style Storyboard </t>
-  </si>
-  <si>
-    <t>Provice Concept Art Backlog</t>
-  </si>
-  <si>
-    <t>Art 8</t>
   </si>
 </sst>
 </file>
@@ -606,43 +618,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -975,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,27 +1011,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="29"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="27"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1045,14 +1057,14 @@
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="26"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1078,14 +1090,14 @@
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1111,14 +1123,14 @@
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -1137,7 +1149,7 @@
         <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1157,7 +1169,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1179,17 +1191,17 @@
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="29"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1220,12 +1232,12 @@
       <c r="L9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="26"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="20"/>
       <c r="Q9" s="11" t="s">
         <v>3</v>
       </c>
@@ -1258,11 +1270,15 @@
       <c r="L10" s="14">
         <v>40819</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="12"/>
+      <c r="M10" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="12" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1292,11 +1308,15 @@
       <c r="L11" s="14">
         <v>40826</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="12"/>
+      <c r="M11" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="12" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1315,7 +1335,7 @@
         <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>39</v>
@@ -1326,10 +1346,10 @@
       <c r="L12" s="14">
         <v>40833</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="22"/>
       <c r="Q12" s="12"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1360,10 +1380,10 @@
       <c r="L13" s="14">
         <v>40840</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
       <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1394,10 +1414,10 @@
       <c r="L14" s="14">
         <v>40847</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
       <c r="Q14" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1428,10 +1448,10 @@
       <c r="L15" s="14">
         <v>40854</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="20"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="22"/>
       <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1462,10 +1482,10 @@
       <c r="L16" s="14">
         <v>40861</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="20"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="22"/>
       <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1496,10 +1516,10 @@
       <c r="L17" s="14">
         <v>40868</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="20"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="22"/>
       <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1530,10 +1550,10 @@
       <c r="L18" s="14">
         <v>40875</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="20"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
       <c r="Q18" s="12"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1564,10 +1584,10 @@
       <c r="L19" s="14">
         <v>40882</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="20"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="22"/>
       <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1581,13 +1601,13 @@
         <v>71</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>47</v>
@@ -1598,10 +1618,10 @@
       <c r="L20" s="14">
         <v>40889</v>
       </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="20"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
       <c r="Q20" s="16" t="s">
         <v>49</v>
       </c>
@@ -1617,13 +1637,13 @@
         <v>72</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>48</v>
@@ -1634,10 +1654,10 @@
       <c r="L21" s="15">
         <v>40896</v>
       </c>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="23"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
       <c r="Q21" s="17" t="s">
         <v>50</v>
       </c>
@@ -1653,13 +1673,13 @@
         <v>73</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -1733,13 +1753,13 @@
         <v>83</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -1753,13 +1773,13 @@
         <v>84</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -1793,13 +1813,13 @@
         <v>95</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -1813,7 +1833,7 @@
         <v>97</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>56</v>
@@ -1833,13 +1853,13 @@
         <v>96</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -1890,16 +1910,16 @@
         <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1907,10 +1927,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>12</v>
@@ -1927,10 +1947,10 @@
         <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>12</v>
@@ -1944,17 +1964,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="L5:Q5"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M13:P13"/>
     <mergeCell ref="M20:P20"/>
     <mergeCell ref="M21:P21"/>
     <mergeCell ref="M14:P14"/>
@@ -1963,6 +1972,17 @@
     <mergeCell ref="M17:P17"/>
     <mergeCell ref="M18:P18"/>
     <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="F4:F36">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="NOT STARTED">
